--- a/final_data.xlsx
+++ b/final_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxwelco/Documents/nortera_foods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E37651-32E6-634F-866E-A7FF875E91D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F7A540-248A-6E46-9EAD-802A4AE59509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15580" xr2:uid="{3BCE50BC-30E0-9140-9FCC-8CFB05315BCF}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15500" xr2:uid="{3BCE50BC-30E0-9140-9FCC-8CFB05315BCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="18">
   <si>
     <t>cotons</t>
   </si>
@@ -53,322 +53,7 @@
     <t>GH 6055</t>
   </si>
   <si>
-    <t>21,1</t>
-  </si>
-  <si>
-    <t>4,1</t>
-  </si>
-  <si>
-    <t>17,1</t>
-  </si>
-  <si>
-    <t>10,3</t>
-  </si>
-  <si>
-    <t>6,6</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>8,4</t>
-  </si>
-  <si>
-    <t>18,5</t>
-  </si>
-  <si>
-    <t>4,2</t>
-  </si>
-  <si>
-    <t>14,6</t>
-  </si>
-  <si>
-    <t>8,2</t>
-  </si>
-  <si>
-    <t>6,2</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>7,4</t>
-  </si>
-  <si>
-    <t>22,5</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>18,0</t>
-  </si>
-  <si>
-    <t>11,2</t>
-  </si>
-  <si>
-    <t>6,4</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>9,0</t>
-  </si>
-  <si>
-    <t>21,7</t>
-  </si>
-  <si>
-    <t>5,0</t>
-  </si>
-  <si>
-    <t>16,6</t>
-  </si>
-  <si>
-    <t>10,5</t>
-  </si>
-  <si>
-    <t>6,1</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>8,7</t>
-  </si>
-  <si>
-    <t>20,6</t>
-  </si>
-  <si>
-    <t>16,4</t>
-  </si>
-  <si>
-    <t>9,4</t>
-  </si>
-  <si>
-    <t>6,3</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>20,8</t>
-  </si>
-  <si>
-    <t>16,3</t>
-  </si>
-  <si>
-    <t>9,6</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>8,3</t>
-  </si>
-  <si>
     <t>GSS 3951</t>
-  </si>
-  <si>
-    <t>9,2</t>
-  </si>
-  <si>
-    <t>3,6</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>8,9</t>
-  </si>
-  <si>
-    <t>2,2</t>
-  </si>
-  <si>
-    <t>2,6</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>6,0</t>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>3,8</t>
-  </si>
-  <si>
-    <t>2,1</t>
-  </si>
-  <si>
-    <t>1,5</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>5,7</t>
-  </si>
-  <si>
-    <t>1,8</t>
-  </si>
-  <si>
-    <t>3,9</t>
-  </si>
-  <si>
-    <t>2,0</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>2,8</t>
-  </si>
-  <si>
-    <t>0,9</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>0,6</t>
-  </si>
-  <si>
-    <t>1,6</t>
-  </si>
-  <si>
-    <t>0,7</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>3,0</t>
-  </si>
-  <si>
-    <t>1,7</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>11,6</t>
-  </si>
-  <si>
-    <t>9,5</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>11,3</t>
-  </si>
-  <si>
-    <t>1,9</t>
-  </si>
-  <si>
-    <t>6,5</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>8,1</t>
-  </si>
-  <si>
-    <t>11,5</t>
-  </si>
-  <si>
-    <t>2,9</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>11,1</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>7,9</t>
-  </si>
-  <si>
-    <t>9,1</t>
-  </si>
-  <si>
-    <t>2,7</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>8,0</t>
-  </si>
-  <si>
-    <t>10,9</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>7,8</t>
-  </si>
-  <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <t>0,4</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>7,5</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
   </si>
   <si>
     <t>harvested date</t>
@@ -466,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -489,6 +174,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B2A264-7CB8-8646-938A-42FFAA7DC809}">
   <dimension ref="A1:XEY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -819,9 +505,9 @@
     <col min="6" max="6" width="13" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="2" customWidth="1"/>
     <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -829,34 +515,34 @@
   <sheetData>
     <row r="1" spans="1:1019 1027:2043 2051:3067 3075:4091 4099:5115 5123:6139 6147:7163 7171:8187 8195:9211 9219:10235 10243:11259 11267:12283 12291:13307 13315:14331 14339:15355 15363:16379" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>0</v>
@@ -868,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1019 1027:2043 2051:3067 3075:4091 4099:5115 5123:6139 6147:7163 7171:8187 8195:9211 9219:10235 10243:11259 11267:12283 12291:13307 13315:14331 14339:15355 15363:16379" x14ac:dyDescent="0.2">
@@ -890,29 +576,29 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>15</v>
+      <c r="G2" s="2">
+        <v>20.6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I2" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="J2" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0.78</v>
+      </c>
+      <c r="M2" s="10">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="N2" s="2">
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:1019 1027:2043 2051:3067 3075:4091 4099:5115 5123:6139 6147:7163 7171:8187 8195:9211 9219:10235 10243:11259 11267:12283 12291:13307 13315:14331 14339:15355 15363:16379" x14ac:dyDescent="0.2">
@@ -934,29 +620,29 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>27</v>
+      <c r="G3" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0.498</v>
+      </c>
+      <c r="N3" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1019 1027:2043 2051:3067 3075:4091 4099:5115 5123:6139 6147:7163 7171:8187 8195:9211 9219:10235 10243:11259 11267:12283 12291:13307 13315:14331 14339:15355 15363:16379" x14ac:dyDescent="0.2">
@@ -978,29 +664,29 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>11</v>
+      <c r="G4" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I4" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="J4" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="N4" s="2">
+        <v>8.4</v>
       </c>
     </row>
     <row r="5" spans="1:1019 1027:2043 2051:3067 3075:4091 4099:5115 5123:6139 6147:7163 7171:8187 8195:9211 9219:10235 10243:11259 11267:12283 12291:13307 13315:14331 14339:15355 15363:16379" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1022,29 +708,29 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>19</v>
+      <c r="G5" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="J5" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K5" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0.81</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0.443</v>
+      </c>
+      <c r="N5" s="2">
+        <v>7.4</v>
       </c>
       <c r="S5" s="2"/>
       <c r="AA5" s="2"/>
@@ -3112,29 +2798,29 @@
       <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>45</v>
+      <c r="G6" s="2">
+        <v>20.8</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="K6" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="N6" s="2">
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:1019 1027:2043 2051:3067 3075:4091 4099:5115 5123:6139 6147:7163 7171:8187 8195:9211 9219:10235 10243:11259 11267:12283 12291:13307 13315:14331 14339:15355 15363:16379" x14ac:dyDescent="0.2">
@@ -3156,29 +2842,29 @@
       <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>34</v>
+      <c r="G7" s="2">
+        <v>21.7</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J7" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="K7" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="N7" s="2">
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:1019 1027:2043 2051:3067 3075:4091 4099:5115 5123:6139 6147:7163 7171:8187 8195:9211 9219:10235 10243:11259 11267:12283 12291:13307 13315:14331 14339:15355 15363:16379" x14ac:dyDescent="0.2">
@@ -3200,29 +2886,29 @@
       <c r="F8" s="2">
         <v>2</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>34</v>
+      <c r="G8" s="2">
+        <v>21.7</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J8" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="N8" s="2">
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:1019 1027:2043 2051:3067 3075:4091 4099:5115 5123:6139 6147:7163 7171:8187 8195:9211 9219:10235 10243:11259 11267:12283 12291:13307 13315:14331 14339:15355 15363:16379" x14ac:dyDescent="0.2">
@@ -3244,29 +2930,29 @@
       <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>19</v>
+      <c r="G9" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="J9" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K9" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0.81</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0.443</v>
+      </c>
+      <c r="N9" s="2">
+        <v>7.4</v>
       </c>
     </row>
     <row r="10" spans="1:1019 1027:2043 2051:3067 3075:4091 4099:5115 5123:6139 6147:7163 7171:8187 8195:9211 9219:10235 10243:11259 11267:12283 12291:13307 13315:14331 14339:15355 15363:16379" x14ac:dyDescent="0.2">
@@ -3288,29 +2974,29 @@
       <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>27</v>
+      <c r="G10" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0.498</v>
+      </c>
+      <c r="N10" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1019 1027:2043 2051:3067 3075:4091 4099:5115 5123:6139 6147:7163 7171:8187 8195:9211 9219:10235 10243:11259 11267:12283 12291:13307 13315:14331 14339:15355 15363:16379" x14ac:dyDescent="0.2">
@@ -3332,29 +3018,29 @@
       <c r="F11" s="2">
         <v>2</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>45</v>
+      <c r="G11" s="2">
+        <v>20.8</v>
+      </c>
+      <c r="H11" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="K11" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="N11" s="2">
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:1019 1027:2043 2051:3067 3075:4091 4099:5115 5123:6139 6147:7163 7171:8187 8195:9211 9219:10235 10243:11259 11267:12283 12291:13307 13315:14331 14339:15355 15363:16379" x14ac:dyDescent="0.2">
@@ -3376,29 +3062,29 @@
       <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>11</v>
+      <c r="G12" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I12" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="J12" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="K12" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="N12" s="2">
+        <v>8.4</v>
       </c>
     </row>
     <row r="13" spans="1:1019 1027:2043 2051:3067 3075:4091 4099:5115 5123:6139 6147:7163 7171:8187 8195:9211 9219:10235 10243:11259 11267:12283 12291:13307 13315:14331 14339:15355 15363:16379" x14ac:dyDescent="0.2">
@@ -3420,29 +3106,29 @@
       <c r="F13" s="2">
         <v>2</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>15</v>
+      <c r="G13" s="2">
+        <v>20.6</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I13" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="J13" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="K13" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0.78</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="N13" s="2">
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:1019 1027:2043 2051:3067 3075:4091 4099:5115 5123:6139 6147:7163 7171:8187 8195:9211 9219:10235 10243:11259 11267:12283 12291:13307 13315:14331 14339:15355 15363:16379" x14ac:dyDescent="0.2">
@@ -3464,29 +3150,29 @@
       <c r="F14" s="2">
         <v>3</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>27</v>
+      <c r="G14" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>18</v>
+      </c>
+      <c r="J14" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0.498</v>
+      </c>
+      <c r="N14" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1019 1027:2043 2051:3067 3075:4091 4099:5115 5123:6139 6147:7163 7171:8187 8195:9211 9219:10235 10243:11259 11267:12283 12291:13307 13315:14331 14339:15355 15363:16379" x14ac:dyDescent="0.2">
@@ -3508,29 +3194,29 @@
       <c r="F15" s="2">
         <v>3</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>11</v>
+      <c r="G15" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I15" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="J15" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="K15" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="N15" s="2">
+        <v>8.4</v>
       </c>
     </row>
     <row r="16" spans="1:1019 1027:2043 2051:3067 3075:4091 4099:5115 5123:6139 6147:7163 7171:8187 8195:9211 9219:10235 10243:11259 11267:12283 12291:13307 13315:14331 14339:15355 15363:16379" x14ac:dyDescent="0.2">
@@ -3552,29 +3238,29 @@
       <c r="F16" s="2">
         <v>3</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>19</v>
+      <c r="G16" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="J16" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K16" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0.81</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0.443</v>
+      </c>
+      <c r="N16" s="2">
+        <v>7.4</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -3596,29 +3282,29 @@
       <c r="F17" s="2">
         <v>3</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>34</v>
+      <c r="G17" s="2">
+        <v>21.7</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J17" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="K17" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L17" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="N17" s="2">
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -3640,29 +3326,29 @@
       <c r="F18" s="2">
         <v>3</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>15</v>
+      <c r="G18" s="2">
+        <v>20.6</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I18" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="J18" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="K18" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="L18" s="10">
+        <v>0.78</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="N18" s="2">
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -3684,29 +3370,29 @@
       <c r="F19" s="2">
         <v>3</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>45</v>
+      <c r="G19" s="2">
+        <v>20.8</v>
+      </c>
+      <c r="H19" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="J19" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="K19" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="L19" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="M19" s="10">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="N19" s="2">
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -3717,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2">
         <v>10</v>
@@ -3728,29 +3414,29 @@
       <c r="F20" s="2">
         <v>1</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>55</v>
+      <c r="G20" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I20" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="L20" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="N20" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -3761,7 +3447,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2">
         <v>6</v>
@@ -3772,29 +3458,29 @@
       <c r="F21" s="2">
         <v>1</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>48</v>
+      <c r="G21" s="2">
+        <v>5</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="I21" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="L21" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="N21" s="2">
+        <v>3.6</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -3805,7 +3491,7 @@
         <v>80</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D22" s="2">
         <v>6</v>
@@ -3816,29 +3502,29 @@
       <c r="F22" s="2">
         <v>1</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>5</v>
+      <c r="G22" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="I22" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="K22" s="2">
+        <v>2</v>
+      </c>
+      <c r="L22" s="10">
+        <v>0.83</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0.316</v>
+      </c>
+      <c r="N22" s="2">
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -3849,7 +3535,7 @@
         <v>120</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2">
         <v>4</v>
@@ -3860,29 +3546,29 @@
       <c r="F23" s="2">
         <v>1</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>64</v>
+      <c r="G23" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I23" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="K23" s="2">
+        <v>2</v>
+      </c>
+      <c r="L23" s="10">
+        <v>0.83</v>
+      </c>
+      <c r="M23" s="10">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="N23" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -3893,7 +3579,7 @@
         <v>160</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
@@ -3904,29 +3590,29 @@
       <c r="F24" s="2">
         <v>1</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>70</v>
+      <c r="G24" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="L24" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="M24" s="10">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1.6</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -3937,7 +3623,7 @@
         <v>200</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2">
         <v>6</v>
@@ -3948,29 +3634,29 @@
       <c r="F25" s="2">
         <v>1</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>48</v>
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I25" s="2">
+        <v>3</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="L25" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="M25" s="10">
+        <v>0.34</v>
+      </c>
+      <c r="N25" s="2">
+        <v>3.6</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -3981,7 +3667,7 @@
         <v>160</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2">
         <v>10</v>
@@ -3992,29 +3678,29 @@
       <c r="F26" s="2">
         <v>2</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>45</v>
+      <c r="G26" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J26" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="K26" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="L26" s="10">
+        <v>0.78</v>
+      </c>
+      <c r="M26" s="10">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="N26" s="2">
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -4025,7 +3711,7 @@
         <v>200</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2">
         <v>10</v>
@@ -4036,29 +3722,29 @@
       <c r="F27" s="2">
         <v>2</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>87</v>
+      <c r="G27" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="I27" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J27" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="L27" s="10">
+        <v>0.77</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="N27" s="2">
+        <v>8.1</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -4069,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D28" s="2">
         <v>10</v>
@@ -4080,29 +3766,29 @@
       <c r="F28" s="2">
         <v>2</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>15</v>
+      <c r="G28" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2</v>
+      </c>
+      <c r="I28" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J28" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="K28" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="L28" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="M28" s="10">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="N28" s="2">
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -4113,7 +3799,7 @@
         <v>40</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2">
         <v>10</v>
@@ -4124,29 +3810,29 @@
       <c r="F29" s="2">
         <v>2</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>94</v>
+      <c r="G29" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="I29" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J29" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="L29" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="M29" s="10">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="N29" s="2">
+        <v>7.9</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -4157,7 +3843,7 @@
         <v>120</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2">
         <v>10</v>
@@ -4168,29 +3854,29 @@
       <c r="F30" s="2">
         <v>2</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>98</v>
+      <c r="G30" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="K30" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="L30" s="10">
+        <v>0.81</v>
+      </c>
+      <c r="M30" s="10">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="N30" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -4201,7 +3887,7 @@
         <v>80</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2">
         <v>10</v>
@@ -4212,29 +3898,29 @@
       <c r="F31" s="2">
         <v>2</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>102</v>
+      <c r="G31" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="J31" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="K31" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="L31" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="M31" s="10">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="N31" s="2">
+        <v>7.8</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -4245,7 +3931,7 @@
         <v>200</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
@@ -4265,7 +3951,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -4285,7 +3971,7 @@
         <v>160</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D34" s="2">
         <v>2</v>
@@ -4296,29 +3982,29 @@
       <c r="F34" s="2">
         <v>3</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>107</v>
+      <c r="G34" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="L34" s="10">
+        <v>0.83</v>
+      </c>
+      <c r="M34" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="N34" s="2">
+        <v>7.5</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -4329,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D35" s="2">
         <v>2</v>
@@ -4340,29 +4026,29 @@
       <c r="F35" s="2">
         <v>3</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>27</v>
+      <c r="G35" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L35" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="M35" s="10">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="N35" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -4373,7 +4059,7 @@
         <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D36" s="2">
         <v>2</v>
@@ -4384,29 +4070,29 @@
       <c r="F36" s="2">
         <v>3</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>107</v>
+      <c r="G36" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="L36" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="M36" s="10">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="N36" s="2">
+        <v>7.5</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -4417,7 +4103,7 @@
         <v>120</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D37" s="2">
         <v>2</v>
@@ -4437,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D38" s="9">
         <v>10</v>
@@ -4467,7 +4153,7 @@
         <v>0.73</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="N38" s="8">
         <f t="shared" ref="N38:N43" si="0">G38/10*20000/2000</f>
@@ -4482,7 +4168,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D39" s="9">
         <v>10</v>
@@ -4528,7 +4214,7 @@
         <v>80</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D40" s="9">
         <v>10</v>
@@ -4574,7 +4260,7 @@
         <v>120</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D41" s="9">
         <v>10</v>
@@ -4620,7 +4306,7 @@
         <v>160</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D42" s="9">
         <v>10</v>
@@ -4666,7 +4352,7 @@
         <v>200</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D43" s="9">
         <v>10</v>
@@ -4712,7 +4398,7 @@
         <v>40</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D44" s="9">
         <v>10</v>
@@ -4758,7 +4444,7 @@
         <v>200</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D45" s="9">
         <v>10</v>
@@ -4804,7 +4490,7 @@
         <v>120</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D46" s="9">
         <v>10</v>
@@ -4850,7 +4536,7 @@
         <v>160</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D47" s="9">
         <v>10</v>
@@ -4896,7 +4582,7 @@
         <v>80</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D48" s="9">
         <v>10</v>
@@ -4942,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D49" s="9">
         <v>10</v>
@@ -4988,7 +4674,7 @@
         <v>200</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D50" s="9">
         <v>10</v>
@@ -5035,7 +4721,7 @@
         <v>120</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D51" s="9">
         <v>10</v>
@@ -5082,7 +4768,7 @@
         <v>40</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D52" s="9">
         <v>10</v>
@@ -5129,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D53" s="9">
         <v>10</v>
@@ -5176,7 +4862,7 @@
         <v>80</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D54" s="9">
         <v>10</v>
@@ -5223,7 +4909,7 @@
         <v>160</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D55" s="9">
         <v>10</v>
